--- a/INTLINE/data/566/PHSE/Philippine Composite Index - Daily.xlsx
+++ b/INTLINE/data/566/PHSE/Philippine Composite Index - Daily.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:NAC2"/>
+  <dimension ref="A1:NAH2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47819,15 +47819,40 @@
       </c>
       <c r="NAA1" s="1" t="inlineStr">
         <is>
+          <t>2022-05-18</t>
+        </is>
+      </c>
+      <c r="NAB1" s="1" t="inlineStr">
+        <is>
+          <t>2022-05-19</t>
+        </is>
+      </c>
+      <c r="NAC1" s="1" t="inlineStr">
+        <is>
+          <t>2022-05-20</t>
+        </is>
+      </c>
+      <c r="NAD1" s="1" t="inlineStr">
+        <is>
+          <t>2022-05-23</t>
+        </is>
+      </c>
+      <c r="NAE1" s="1" t="inlineStr">
+        <is>
+          <t>2022-05-24</t>
+        </is>
+      </c>
+      <c r="NAF1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="NAB1" s="1" t="inlineStr">
+      <c r="NAG1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="NAC1" s="1" t="inlineStr">
+      <c r="NAH1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -75362,19 +75387,34 @@
         <v>6502.12</v>
       </c>
       <c r="MZZ2" t="n">
-        <v>6552.5</v>
-      </c>
-      <c r="NAA2" t="inlineStr">
+        <v>6594.66</v>
+      </c>
+      <c r="NAA2" t="n">
+        <v>6727.6</v>
+      </c>
+      <c r="NAB2" t="n">
+        <v>6660.05</v>
+      </c>
+      <c r="NAC2" t="n">
+        <v>6746.33</v>
+      </c>
+      <c r="NAD2" t="n">
+        <v>6687.85</v>
+      </c>
+      <c r="NAE2" t="n">
+        <v>6577.45</v>
+      </c>
+      <c r="NAF2" t="inlineStr">
         <is>
           <t>PSI</t>
         </is>
       </c>
-      <c r="NAB2" t="inlineStr">
+      <c r="NAG2" t="inlineStr">
         <is>
           <t>Composite Index, Close Price</t>
         </is>
       </c>
-      <c r="NAC2" t="inlineStr">
+      <c r="NAH2" t="inlineStr">
         <is>
           <t>Index: 1985.01.02=100</t>
         </is>

--- a/INTLINE/data/566/PHSE/Philippine Composite Index - Daily.xlsx
+++ b/INTLINE/data/566/PHSE/Philippine Composite Index - Daily.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9507" uniqueCount="9506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9520" uniqueCount="9519">
   <si>
     <t>1986-01-02</t>
   </si>
@@ -28511,6 +28511,45 @@
   </si>
   <si>
     <t>2022-05-31</t>
+  </si>
+  <si>
+    <t>2022-06-01</t>
+  </si>
+  <si>
+    <t>2022-06-02</t>
+  </si>
+  <si>
+    <t>2022-06-03</t>
+  </si>
+  <si>
+    <t>2022-06-06</t>
+  </si>
+  <si>
+    <t>2022-06-07</t>
+  </si>
+  <si>
+    <t>2022-06-08</t>
+  </si>
+  <si>
+    <t>2022-06-09</t>
+  </si>
+  <si>
+    <t>2022-06-10</t>
+  </si>
+  <si>
+    <t>2022-06-13</t>
+  </si>
+  <si>
+    <t>2022-06-14</t>
+  </si>
+  <si>
+    <t>2022-06-15</t>
+  </si>
+  <si>
+    <t>2022-06-16</t>
+  </si>
+  <si>
+    <t>2022-06-17</t>
   </si>
   <si>
     <t>Index</t>
@@ -28889,15 +28928,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:NAM2"/>
+  <dimension ref="A1:NAZ2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9503">
+    <row r="1" spans="1:9516">
       <c r="A1" s="1" t="s">
-        <v>9502</v>
+        <v>9515</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -57405,10 +57444,49 @@
       <c r="NAM1" s="1" t="s">
         <v>9501</v>
       </c>
+      <c r="NAN1" s="1" t="s">
+        <v>9502</v>
+      </c>
+      <c r="NAO1" s="1" t="s">
+        <v>9503</v>
+      </c>
+      <c r="NAP1" s="1" t="s">
+        <v>9504</v>
+      </c>
+      <c r="NAQ1" s="1" t="s">
+        <v>9505</v>
+      </c>
+      <c r="NAR1" s="1" t="s">
+        <v>9506</v>
+      </c>
+      <c r="NAS1" s="1" t="s">
+        <v>9507</v>
+      </c>
+      <c r="NAT1" s="1" t="s">
+        <v>9508</v>
+      </c>
+      <c r="NAU1" s="1" t="s">
+        <v>9509</v>
+      </c>
+      <c r="NAV1" s="1" t="s">
+        <v>9510</v>
+      </c>
+      <c r="NAW1" s="1" t="s">
+        <v>9511</v>
+      </c>
+      <c r="NAX1" s="1" t="s">
+        <v>9512</v>
+      </c>
+      <c r="NAY1" s="1" t="s">
+        <v>9513</v>
+      </c>
+      <c r="NAZ1" s="1" t="s">
+        <v>9514</v>
+      </c>
     </row>
-    <row r="2" spans="1:9503">
+    <row r="2" spans="1:9516">
       <c r="A2" s="1" t="s">
-        <v>9503</v>
+        <v>9516</v>
       </c>
       <c r="B2">
         <v>131.32</v>
@@ -84492,16 +84570,55 @@
         <v>6822.32</v>
       </c>
       <c r="NAJ2">
-        <v>6798.33</v>
-      </c>
-      <c r="NAK2" t="s">
-        <v>9503</v>
-      </c>
-      <c r="NAL2" t="s">
-        <v>9504</v>
-      </c>
-      <c r="NAM2" t="s">
-        <v>9505</v>
+        <v>6774.68</v>
+      </c>
+      <c r="NAK2">
+        <v>6712.21</v>
+      </c>
+      <c r="NAL2">
+        <v>6686.83</v>
+      </c>
+      <c r="NAM2">
+        <v>6741.4</v>
+      </c>
+      <c r="NAN2">
+        <v>6716.88</v>
+      </c>
+      <c r="NAO2">
+        <v>6754.01</v>
+      </c>
+      <c r="NAP2">
+        <v>6769.62</v>
+      </c>
+      <c r="NAQ2">
+        <v>6758.59</v>
+      </c>
+      <c r="NAR2">
+        <v>6530.04</v>
+      </c>
+      <c r="NAS2">
+        <v>6467.01</v>
+      </c>
+      <c r="NAT2">
+        <v>6474.53</v>
+      </c>
+      <c r="NAU2">
+        <v>6319.42</v>
+      </c>
+      <c r="NAV2">
+        <v>6393.01</v>
+      </c>
+      <c r="NAW2">
+        <v>6273.73</v>
+      </c>
+      <c r="NAX2" t="s">
+        <v>9516</v>
+      </c>
+      <c r="NAY2" t="s">
+        <v>9517</v>
+      </c>
+      <c r="NAZ2" t="s">
+        <v>9518</v>
       </c>
     </row>
   </sheetData>

--- a/INTLINE/data/566/PHSE/Philippine Composite Index - Daily.xlsx
+++ b/INTLINE/data/566/PHSE/Philippine Composite Index - Daily.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:NBC2"/>
+  <dimension ref="A1:NBG2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47949,15 +47949,35 @@
       </c>
       <c r="NBA1" s="1" t="inlineStr">
         <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="NBB1" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-24</t>
+        </is>
+      </c>
+      <c r="NBC1" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-27</t>
+        </is>
+      </c>
+      <c r="NBD1" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-28</t>
+        </is>
+      </c>
+      <c r="NBE1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="NBB1" s="1" t="inlineStr">
+      <c r="NBF1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="NBC1" s="1" t="inlineStr">
+      <c r="NBG1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -75570,19 +75590,31 @@
         <v>6285.19</v>
       </c>
       <c r="NAZ2" t="n">
-        <v>6263.14</v>
-      </c>
-      <c r="NBA2" t="inlineStr">
+        <v>6168</v>
+      </c>
+      <c r="NBA2" t="n">
+        <v>6065.23</v>
+      </c>
+      <c r="NBB2" t="n">
+        <v>6217.56</v>
+      </c>
+      <c r="NBC2" t="n">
+        <v>6238.82</v>
+      </c>
+      <c r="NBD2" t="n">
+        <v>6251.45</v>
+      </c>
+      <c r="NBE2" t="inlineStr">
         <is>
           <t>PSI</t>
         </is>
       </c>
-      <c r="NBB2" t="inlineStr">
+      <c r="NBF2" t="inlineStr">
         <is>
           <t>Composite Index, Close Price</t>
         </is>
       </c>
-      <c r="NBC2" t="inlineStr">
+      <c r="NBG2" t="inlineStr">
         <is>
           <t>Index: 1985.01.02=100</t>
         </is>
